--- a/biology/Origine et évolution du vivant/Archezoa/Archezoa.xlsx
+++ b/biology/Origine et évolution du vivant/Archezoa/Archezoa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les archézoaires (Archezoa) étaient un règne proposé par Thomas Cavalier-Smith[1],[2] constitués de protistes supposés primitifs car dépourvus de mitochondries. Les membres de ce taxon auraient donc divergé du reste des eucaryotes avant la capture d'une protéobactérie transformée par la suite en mitochondrie. Cependant il s'est avéré par la suite que tous les embranchements inclus dans ce règne possédaient des reliques de mitochondries et avaient donc perdu ces dernières secondairement et indépendamment les uns des autres. Ce règne a donc depuis été abandonné[3]. La plupart des anciens membres de Archezoa ont été inclus parmi les protozoaires.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les archézoaires (Archezoa) étaient un règne proposé par Thomas Cavalier-Smith, constitués de protistes supposés primitifs car dépourvus de mitochondries. Les membres de ce taxon auraient donc divergé du reste des eucaryotes avant la capture d'une protéobactérie transformée par la suite en mitochondrie. Cependant il s'est avéré par la suite que tous les embranchements inclus dans ce règne possédaient des reliques de mitochondries et avaient donc perdu ces dernières secondairement et indépendamment les uns des autres. Ce règne a donc depuis été abandonné. La plupart des anciens membres de Archezoa ont été inclus parmi les protozoaires.
 </t>
         </is>
       </c>
